--- a/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 30/DAX30_returns_compared_semester.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 30/DAX30_returns_compared_semester.xlsx
@@ -501,13 +501,13 @@
         <v>0.09472088398319407</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0770604820109738</v>
+        <v>0.09004828970706083</v>
       </c>
       <c r="H2" t="n">
-        <v>-18.64467605196091</v>
+        <v>-4.933013797635463</v>
       </c>
       <c r="I2" t="n">
-        <v>29.4610920968473</v>
+        <v>16.25121896042441</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.06609390632718209</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1046688713764745</v>
+        <v>0.05789602178717095</v>
       </c>
       <c r="H3" t="n">
-        <v>58.36387526913034</v>
+        <v>-12.40338935246083</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.009375267559595661</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04317398359396259</v>
+        <v>0.03737708007872329</v>
       </c>
       <c r="H4" t="n">
-        <v>360.5093488747814</v>
+        <v>298.6774760413909</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.01338981234153172</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05397027831046705</v>
+        <v>0.02783906061740409</v>
       </c>
       <c r="H5" t="n">
-        <v>-503.0697140023783</v>
+        <v>307.9122537890584</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.2211956880075068</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2130691610022854</v>
+        <v>-0.2091252553237655</v>
       </c>
       <c r="H6" t="n">
-        <v>-3.673908419474076</v>
+        <v>5.456902344014802</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.249875694316674</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2304018703624147</v>
+        <v>-0.2220480266321454</v>
       </c>
       <c r="H7" t="n">
-        <v>-7.793404639660401</v>
+        <v>11.13660444671416</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.3702558697496981</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3171790054228874</v>
+        <v>-0.3170313006696792</v>
       </c>
       <c r="H8" t="n">
-        <v>-14.33518511474023</v>
+        <v>14.3750777309756</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.3986343696712738</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3908625842326581</v>
+        <v>-0.3170313006696792</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.949602450241454</v>
+        <v>20.47065562081037</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.01620488826727209</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0642383054949016</v>
+        <v>-0.03871236763991465</v>
       </c>
       <c r="H10" t="n">
-        <v>-496.413134329592</v>
+        <v>-338.8931475578229</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.01606586733002158</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1539956642537198</v>
+        <v>0.1024499995755935</v>
       </c>
       <c r="H11" t="n">
-        <v>-1058.52692600016</v>
+        <v>737.6873247555685</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.2271888010689149</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2112878166540634</v>
+        <v>0.2294762811821734</v>
       </c>
       <c r="H12" t="n">
-        <v>-6.999017706875494</v>
+        <v>1.006863059488841</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.2633405849776401</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2854466618239246</v>
+        <v>0.2495538211982775</v>
       </c>
       <c r="H13" t="n">
-        <v>8.394481560129236</v>
+        <v>-5.235335746114961</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.009567272390893788</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.05235083516712086</v>
+        <v>-0.03017017207258434</v>
       </c>
       <c r="H14" t="n">
-        <v>447.1866277890115</v>
+        <v>-215.3476857343433</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.02018671694130859</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01191570676216974</v>
+        <v>0.02778604058698072</v>
       </c>
       <c r="H15" t="n">
-        <v>-40.97253755123337</v>
+        <v>37.64516869071186</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1179991053673963</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1354932115094685</v>
+        <v>0.1355966335908791</v>
       </c>
       <c r="H16" t="n">
-        <v>14.8256260821668</v>
+        <v>14.9132725783742</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.2188329224258184</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2170624804638703</v>
+        <v>0.2117962621619358</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.809038211582741</v>
+        <v>-3.215540050317576</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.06046660347950181</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05848574625803327</v>
+        <v>0.04696762116437764</v>
       </c>
       <c r="H18" t="n">
-        <v>-3.275952521692493</v>
+        <v>-22.32469088444885</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.09008930410788432</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08440542966628488</v>
+        <v>0.09050917415670517</v>
       </c>
       <c r="H19" t="n">
-        <v>-6.309155673788815</v>
+        <v>0.4660598202846005</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>-0.1455309749378724</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.1375251046685008</v>
+        <v>-0.1347105740814278</v>
       </c>
       <c r="H20" t="n">
-        <v>-5.501145218596478</v>
+        <v>7.435118785580768</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>-0.1998298937858519</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1989456082763125</v>
+        <v>-0.1814274514808068</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.4425191310400444</v>
+        <v>9.209053738859566</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.05438824257925616</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07371939896445261</v>
+        <v>0.05261901734284584</v>
       </c>
       <c r="H22" t="n">
-        <v>35.54289579595537</v>
+        <v>-3.252955330983812</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.04084014519188762</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06057677284927157</v>
+        <v>0.06932501484196557</v>
       </c>
       <c r="H23" t="n">
-        <v>48.32653646222684</v>
+        <v>69.7472291448565</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.1157343230489467</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1357448601189251</v>
+        <v>0.1226723250289478</v>
       </c>
       <c r="H24" t="n">
-        <v>17.29006274267961</v>
+        <v>5.994766113650543</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.15207602857372</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1723176973454368</v>
+        <v>0.1493077044021539</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31022973282375</v>
+        <v>-1.820355382455373</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.0528767867841862</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03215492251122477</v>
+        <v>0.01306939669855223</v>
       </c>
       <c r="H26" t="n">
-        <v>-39.18896274377756</v>
+        <v>-75.28330011448261</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.05046680748257124</v>
       </c>
       <c r="G27" t="n">
-        <v>0.03590416970653101</v>
+        <v>0.03943618632810681</v>
       </c>
       <c r="H27" t="n">
-        <v>-28.8558728052482</v>
+        <v>-21.85718040174003</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.1529110724585075</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1746260698393683</v>
+        <v>0.1664323537527924</v>
       </c>
       <c r="H28" t="n">
-        <v>14.2010627691812</v>
+        <v>8.842578288733085</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.1707030879345922</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1878357634955112</v>
+        <v>0.1787430016161869</v>
       </c>
       <c r="H29" t="n">
-        <v>10.03653523097583</v>
+        <v>4.709881806400191</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.01956608687570464</v>
       </c>
       <c r="G30" t="n">
-        <v>0.01443776551525761</v>
+        <v>0.0175873875460136</v>
       </c>
       <c r="H30" t="n">
-        <v>-26.21025549475049</v>
+        <v>-10.11290270896225</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.009704970602210089</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04576065315158552</v>
+        <v>0.005230933186639667</v>
       </c>
       <c r="H31" t="n">
-        <v>371.5176895143254</v>
+        <v>-46.10047365369206</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.03729327229807801</v>
       </c>
       <c r="G32" t="n">
-        <v>0.037967813702754</v>
+        <v>0.01110160209664757</v>
       </c>
       <c r="H32" t="n">
-        <v>1.808748235565137</v>
+        <v>-70.23162245481012</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.02610363887137964</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02027796163869253</v>
+        <v>0.0361957371914133</v>
       </c>
       <c r="H33" t="n">
-        <v>-22.31749091148536</v>
+        <v>38.66165315020032</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.1279680086290383</v>
       </c>
       <c r="G34" t="n">
-        <v>0.09187574162106939</v>
+        <v>0.1045133421858203</v>
       </c>
       <c r="H34" t="n">
-        <v>-28.20413273179505</v>
+        <v>-18.32853905792177</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.1286605930521383</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1387458011146659</v>
+        <v>0.1550642366618276</v>
       </c>
       <c r="H35" t="n">
-        <v>7.838614624169078</v>
+        <v>20.52193525875439</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.01503188746380182</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.01181988858828563</v>
+        <v>-0.02455152958931067</v>
       </c>
       <c r="H36" t="n">
-        <v>-178.632098708489</v>
+        <v>-263.3296527028494</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.01531448840280134</v>
       </c>
       <c r="G37" t="n">
-        <v>0.001642920779408315</v>
+        <v>-0.005798861160164953</v>
       </c>
       <c r="H37" t="n">
-        <v>-89.27211450884778</v>
+        <v>-137.8651967185807</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.002042413588276078</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.0282866243494616</v>
+        <v>-0.03111867945447207</v>
       </c>
       <c r="H38" t="n">
-        <v>1284.960642243731</v>
+        <v>-1423.622817293247</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.03340921239761406</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.03929409151502726</v>
+        <v>-0.0394331035231104</v>
       </c>
       <c r="H39" t="n">
-        <v>17.61454010760658</v>
+        <v>-18.03062895887524</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.147548992070951</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1275066581138738</v>
+        <v>0.1134933648714189</v>
       </c>
       <c r="H40" t="n">
-        <v>-13.58351126345857</v>
+        <v>-23.0808945025907</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1613992061073214</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1390762791676045</v>
+        <v>0.1409621644333986</v>
       </c>
       <c r="H41" t="n">
-        <v>-13.8308777831741</v>
+        <v>-12.66241771990707</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.06456490419750059</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04612794489409121</v>
+        <v>0.04307247894072651</v>
       </c>
       <c r="H42" t="n">
-        <v>-28.55569838222281</v>
+        <v>-33.28809284844581</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.03476052319325828</v>
       </c>
       <c r="G43" t="n">
-        <v>0.03278455006717646</v>
+        <v>0.04919240017730598</v>
       </c>
       <c r="H43" t="n">
-        <v>-5.684532177769559</v>
+        <v>41.5180085288438</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.01411278266930669</v>
       </c>
       <c r="G44" t="n">
-        <v>0.004842882352703869</v>
+        <v>0.007254000188639382</v>
       </c>
       <c r="H44" t="n">
-        <v>-65.68442619585963</v>
+        <v>-48.59978815931314</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.04105803848404692</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03939272525100181</v>
+        <v>0.03211203376219979</v>
       </c>
       <c r="H45" t="n">
-        <v>-4.055998032375956</v>
+        <v>-21.78868024911394</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>-0.06581986401260984</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.01281031148901046</v>
+        <v>-0.04015776746095814</v>
       </c>
       <c r="H46" t="n">
-        <v>-80.53731699209186</v>
+        <v>38.98837674100227</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>-0.041309702810476</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.06043334597627056</v>
+        <v>-0.02065584211507861</v>
       </c>
       <c r="H47" t="n">
-        <v>46.293344819089</v>
+        <v>49.99760175025912</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>-0.1259754094228709</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.1199453471123918</v>
+        <v>-0.1084693622622364</v>
       </c>
       <c r="H48" t="n">
-        <v>-4.786697926289358</v>
+        <v>13.89640029021113</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.1974814065859856</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.1373421530910223</v>
+        <v>-0.1122169959382314</v>
       </c>
       <c r="H49" t="n">
-        <v>-30.45312190886082</v>
+        <v>43.17591824049983</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.1088736477750334</v>
       </c>
       <c r="G50" t="n">
-        <v>0.09640818062120669</v>
+        <v>0.1088196670903853</v>
       </c>
       <c r="H50" t="n">
-        <v>-11.44948057548712</v>
+        <v>-0.04958103797499099</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.1002708283321516</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1518109202005102</v>
+        <v>0.1185356089760428</v>
       </c>
       <c r="H51" t="n">
-        <v>51.40088371228943</v>
+        <v>18.21544804974414</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.05961905326882879</v>
       </c>
       <c r="G52" t="n">
-        <v>0.07463255645573691</v>
+        <v>0.07675877230262534</v>
       </c>
       <c r="H52" t="n">
-        <v>25.18239113796491</v>
+        <v>28.74872728439967</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.06754268044434918</v>
       </c>
       <c r="G53" t="n">
-        <v>0.08760438691242108</v>
+        <v>0.05606922361620155</v>
       </c>
       <c r="H53" t="n">
-        <v>29.70226579118585</v>
+        <v>-16.9869729075988</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>-0.06992058032982243</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.06752402333296398</v>
+        <v>-0.08980706975416811</v>
       </c>
       <c r="H54" t="n">
-        <v>-3.427541627305795</v>
+        <v>-28.44153943022083</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>-0.07723620257289701</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.09850635365612453</v>
+        <v>-0.06639405042339429</v>
       </c>
       <c r="H55" t="n">
-        <v>27.53909484759086</v>
+        <v>14.03765564376329</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.04582607359533745</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03179899750697017</v>
+        <v>0.08235434986677462</v>
       </c>
       <c r="H56" t="n">
-        <v>-30.60937799784457</v>
+        <v>79.71068303602978</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.005170277811757367</v>
       </c>
       <c r="G57" t="n">
-        <v>0.08955081892552955</v>
+        <v>0.100509991874999</v>
       </c>
       <c r="H57" t="n">
-        <v>1632.03108587102</v>
+        <v>1843.995961811496</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>

--- a/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 30/DAX30_returns_compared_semester.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 30/DAX30_returns_compared_semester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.09472088398319407</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09004828970706083</v>
+        <v>0.08694235855969235</v>
       </c>
       <c r="H2" t="n">
-        <v>-4.933013797635463</v>
+        <v>-8.212049018547841</v>
       </c>
       <c r="I2" t="n">
-        <v>16.25121896042441</v>
+        <v>20.6567289200182</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.06609390632718209</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05789602178717095</v>
+        <v>0.07233998577375519</v>
       </c>
       <c r="H3" t="n">
-        <v>-12.40338935246083</v>
+        <v>9.450310616614752</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.009375267559595661</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03737708007872329</v>
+        <v>0.03999289774323695</v>
       </c>
       <c r="H4" t="n">
-        <v>298.6774760413909</v>
+        <v>326.5787348362544</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.01338981234153172</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02783906061740409</v>
+        <v>0.005111523360389024</v>
       </c>
       <c r="H5" t="n">
-        <v>307.9122537890584</v>
+        <v>138.1747199289299</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.2211956880075068</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2091252553237655</v>
+        <v>-0.2276319691856447</v>
       </c>
       <c r="H6" t="n">
-        <v>5.456902344014802</v>
+        <v>-2.909767923649343</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.249875694316674</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2220480266321454</v>
+        <v>-0.1900678173357139</v>
       </c>
       <c r="H7" t="n">
-        <v>11.13660444671416</v>
+        <v>23.93505184428383</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.3702558697496981</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3170313006696792</v>
+        <v>-0.2819368714087576</v>
       </c>
       <c r="H8" t="n">
-        <v>14.3750777309756</v>
+        <v>23.85350390275953</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.3986343696712738</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3170313006696792</v>
+        <v>-0.3941028475273671</v>
       </c>
       <c r="H9" t="n">
-        <v>20.47065562081037</v>
+        <v>1.13676152601783</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.01620488826727209</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.03871236763991465</v>
+        <v>-0.05174645253037699</v>
       </c>
       <c r="H10" t="n">
-        <v>-338.8931475578229</v>
+        <v>-419.3261914362334</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.01606586733002158</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1024499995755935</v>
+        <v>0.04666627688234877</v>
       </c>
       <c r="H11" t="n">
-        <v>737.6873247555685</v>
+        <v>390.468456658705</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.2271888010689149</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2294762811821734</v>
+        <v>0.2399401539179316</v>
       </c>
       <c r="H12" t="n">
-        <v>1.006863059488841</v>
+        <v>5.612667873161911</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.2633405849776401</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2495538211982775</v>
+        <v>0.2395176471751634</v>
       </c>
       <c r="H13" t="n">
-        <v>-5.235335746114961</v>
+        <v>-9.046436121686098</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.009567272390893788</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.03017017207258434</v>
+        <v>-0.01098870542907599</v>
       </c>
       <c r="H14" t="n">
-        <v>-215.3476857343433</v>
+        <v>-14.85724436502021</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.02018671694130859</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02778604058698072</v>
+        <v>-0.0007873914144341191</v>
       </c>
       <c r="H15" t="n">
-        <v>37.64516869071186</v>
+        <v>-103.900542206657</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1179991053673963</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1355966335908791</v>
+        <v>0.1292567780830718</v>
       </c>
       <c r="H16" t="n">
-        <v>14.9132725783742</v>
+        <v>9.540472938861818</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.2188329224258184</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2117962621619358</v>
+        <v>0.2280166062613969</v>
       </c>
       <c r="H17" t="n">
-        <v>-3.215540050317576</v>
+        <v>4.196664621472414</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.06046660347950181</v>
       </c>
       <c r="G18" t="n">
-        <v>0.04696762116437764</v>
+        <v>0.04634951415079622</v>
       </c>
       <c r="H18" t="n">
-        <v>-22.32469088444885</v>
+        <v>-23.34691964877982</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.09008930410788432</v>
       </c>
       <c r="G19" t="n">
-        <v>0.09050917415670517</v>
+        <v>0.07526505416167774</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4660598202846005</v>
+        <v>-16.45506100086438</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>-0.1455309749378724</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.1347105740814278</v>
+        <v>-0.1326812428403808</v>
       </c>
       <c r="H20" t="n">
-        <v>7.435118785580768</v>
+        <v>8.829551305471011</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>-0.1998298937858519</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1814274514808068</v>
+        <v>-0.1787817762352114</v>
       </c>
       <c r="H21" t="n">
-        <v>9.209053738859566</v>
+        <v>10.53301743391644</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.05438824257925616</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05261901734284584</v>
+        <v>0.05175422858573275</v>
       </c>
       <c r="H22" t="n">
-        <v>-3.252955330983812</v>
+        <v>-4.842984197706046</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.04084014519188762</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06932501484196557</v>
+        <v>0.04933480619631943</v>
       </c>
       <c r="H23" t="n">
-        <v>69.7472291448565</v>
+        <v>20.79978159852176</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.1157343230489467</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1226723250289478</v>
+        <v>0.1287733868815848</v>
       </c>
       <c r="H24" t="n">
-        <v>5.994766113650543</v>
+        <v>11.26637585906437</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.15207602857372</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1493077044021539</v>
+        <v>0.1511457619266983</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.820355382455373</v>
+        <v>-0.6117115601626495</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.0528767867841862</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01306939669855223</v>
+        <v>0.02983327101816859</v>
       </c>
       <c r="H26" t="n">
-        <v>-75.28330011448261</v>
+        <v>-43.57964461809772</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.05046680748257124</v>
       </c>
       <c r="G27" t="n">
-        <v>0.03943618632810681</v>
+        <v>0.05327939712502726</v>
       </c>
       <c r="H27" t="n">
-        <v>-21.85718040174003</v>
+        <v>5.573147545398719</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.1529110724585075</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1664323537527924</v>
+        <v>0.1565250412759756</v>
       </c>
       <c r="H28" t="n">
-        <v>8.842578288733085</v>
+        <v>2.363444817541757</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.1707030879345922</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1787430016161869</v>
+        <v>0.1886110414476004</v>
       </c>
       <c r="H29" t="n">
-        <v>4.709881806400191</v>
+        <v>10.49070273401846</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.01956608687570464</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0175873875460136</v>
+        <v>0.006772946851218597</v>
       </c>
       <c r="H30" t="n">
-        <v>-10.11290270896225</v>
+        <v>-65.38425442836699</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.009704970602210089</v>
       </c>
       <c r="G31" t="n">
-        <v>0.005230933186639667</v>
+        <v>0.0293334441588024</v>
       </c>
       <c r="H31" t="n">
-        <v>-46.10047365369206</v>
+        <v>202.251756972065</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.03729327229807801</v>
       </c>
       <c r="G32" t="n">
-        <v>0.01110160209664757</v>
+        <v>0.02168183125740182</v>
       </c>
       <c r="H32" t="n">
-        <v>-70.23162245481012</v>
+        <v>-41.86127973940425</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.02610363887137964</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0361957371914133</v>
+        <v>0.01112141651027694</v>
       </c>
       <c r="H33" t="n">
-        <v>38.66165315020032</v>
+        <v>-57.39514875655669</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.1279680086290383</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1045133421858203</v>
+        <v>0.09955773566323552</v>
       </c>
       <c r="H34" t="n">
-        <v>-18.32853905792177</v>
+        <v>-22.20107452649377</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.1286605930521383</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1550642366618276</v>
+        <v>0.1514573519863638</v>
       </c>
       <c r="H35" t="n">
-        <v>20.52193525875439</v>
+        <v>17.71852468065908</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.01503188746380182</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.02455152958931067</v>
+        <v>-0.006401564910383272</v>
       </c>
       <c r="H36" t="n">
-        <v>-263.3296527028494</v>
+        <v>-142.5865675604533</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.01531448840280134</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.005798861160164953</v>
+        <v>0.005124345175291234</v>
       </c>
       <c r="H37" t="n">
-        <v>-137.8651967185807</v>
+        <v>-66.53923369484622</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.002042413588276078</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.03111867945447207</v>
+        <v>-0.03547773085368686</v>
       </c>
       <c r="H38" t="n">
-        <v>-1423.622817293247</v>
+        <v>-1637.049295859427</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.03340921239761406</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.0394331035231104</v>
+        <v>-0.02552474354254478</v>
       </c>
       <c r="H39" t="n">
-        <v>-18.03062895887524</v>
+        <v>23.59968490497057</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.147548992070951</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1134933648714189</v>
+        <v>0.1546745746402088</v>
       </c>
       <c r="H40" t="n">
-        <v>-23.0808945025907</v>
+        <v>4.829299386763253</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1613992061073214</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1409621644333986</v>
+        <v>0.1312344590601114</v>
       </c>
       <c r="H41" t="n">
-        <v>-12.66241771990707</v>
+        <v>-18.68952628376135</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.06456490419750059</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04307247894072651</v>
+        <v>0.05454724696877319</v>
       </c>
       <c r="H42" t="n">
-        <v>-33.28809284844581</v>
+        <v>-15.51563864802451</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.03476052319325828</v>
       </c>
       <c r="G43" t="n">
-        <v>0.04919240017730598</v>
+        <v>0.05109018977713883</v>
       </c>
       <c r="H43" t="n">
-        <v>41.5180085288438</v>
+        <v>46.97762025356295</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.01411278266930669</v>
       </c>
       <c r="G44" t="n">
-        <v>0.007254000188639382</v>
+        <v>0.01435164219241896</v>
       </c>
       <c r="H44" t="n">
-        <v>-48.59978815931314</v>
+        <v>1.692504793060801</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.04105803848404692</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03211203376219979</v>
+        <v>0.02124831308924308</v>
       </c>
       <c r="H45" t="n">
-        <v>-21.78868024911394</v>
+        <v>-48.2481046981845</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>-0.06581986401260984</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.04015776746095814</v>
+        <v>-0.02827203165444766</v>
       </c>
       <c r="H46" t="n">
-        <v>38.98837674100227</v>
+        <v>57.0463535916281</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>-0.041309702810476</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.02065584211507861</v>
+        <v>-0.01197462943645966</v>
       </c>
       <c r="H47" t="n">
-        <v>49.99760175025912</v>
+        <v>71.01255002632715</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>-0.1259754094228709</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.1084693622622364</v>
+        <v>-0.1265432889806382</v>
       </c>
       <c r="H48" t="n">
-        <v>13.89640029021113</v>
+        <v>-0.4507860386157451</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.1974814065859856</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.1122169959382314</v>
+        <v>-0.1584548893929209</v>
       </c>
       <c r="H49" t="n">
-        <v>43.17591824049983</v>
+        <v>19.76212235255278</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.1088736477750334</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1088196670903853</v>
+        <v>0.1301788591129626</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.04958103797499099</v>
+        <v>19.56874943875523</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.1002708283321516</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1185356089760428</v>
+        <v>0.1404532754250782</v>
       </c>
       <c r="H51" t="n">
-        <v>18.21544804974414</v>
+        <v>40.07391557574497</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.05961905326882879</v>
       </c>
       <c r="G52" t="n">
-        <v>0.07675877230262534</v>
+        <v>0.06976199292737169</v>
       </c>
       <c r="H52" t="n">
-        <v>28.74872728439967</v>
+        <v>17.01291634539596</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.06754268044434918</v>
       </c>
       <c r="G53" t="n">
-        <v>0.05606922361620155</v>
+        <v>0.06682192648760603</v>
       </c>
       <c r="H53" t="n">
-        <v>-16.9869729075988</v>
+        <v>-1.06710890358727</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>-0.06992058032982243</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.08980706975416811</v>
+        <v>-0.09505533539415029</v>
       </c>
       <c r="H54" t="n">
-        <v>-28.44153943022083</v>
+        <v>-35.94757787444652</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>-0.07723620257289701</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.06639405042339429</v>
+        <v>-0.1147419412313216</v>
       </c>
       <c r="H55" t="n">
-        <v>14.03765564376329</v>
+        <v>-48.55979114590202</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.04582607359533745</v>
       </c>
       <c r="G56" t="n">
-        <v>0.08235434986677462</v>
+        <v>0.0563113151212511</v>
       </c>
       <c r="H56" t="n">
-        <v>79.71068303602978</v>
+        <v>22.88051474473359</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,14 +2318,14 @@
         <v>0.005170277811757367</v>
       </c>
       <c r="G57" t="n">
-        <v>0.100509991874999</v>
+        <v>0.1322624733189571</v>
       </c>
       <c r="H57" t="n">
-        <v>1843.995961811496</v>
+        <v>2458.13088066928</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>